--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/100nodes/100.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/100nodes/100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Sybil_test\100nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DD6C69-E730-405E-B108-7D4B63F331CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D828A8-B4BE-458A-AD28-A04C04511CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView topLeftCell="E43" workbookViewId="0">
+    <sheetView topLeftCell="B46" workbookViewId="0">
       <selection activeCell="Y49" sqref="Y49:Z58"/>
     </sheetView>
   </sheetViews>
